--- a/example/jsonToExcel/translate.xlsx
+++ b/example/jsonToExcel/translate.xlsx
@@ -1,24 +1,192 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ganguo/Documents/editorCli/example/jsonToExcel/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18AEF380-E413-DA43-A061-FDE2994E2576}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="Sheet_0" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+  <si>
+    <t>登录</t>
+  </si>
+  <si>
+    <t>Log in</t>
+  </si>
+  <si>
+    <t>เข้าสู่ระบบ</t>
+  </si>
+  <si>
+    <t>Layout.register</t>
+  </si>
+  <si>
+    <t>注册</t>
+  </si>
+  <si>
+    <t>Register</t>
+  </si>
+  <si>
+    <t>ลงทะเบียน</t>
+  </si>
+  <si>
+    <t>Layout.center</t>
+  </si>
+  <si>
+    <t>个人中心</t>
+  </si>
+  <si>
+    <t>Profile</t>
+  </si>
+  <si>
+    <t>ศูนย์ส่วนบุคคล</t>
+  </si>
+  <si>
+    <t>Layout.logout</t>
+  </si>
+  <si>
+    <t>退出</t>
+  </si>
+  <si>
+    <t>Log out</t>
+  </si>
+  <si>
+    <t>ล้มเลิก</t>
+  </si>
+  <si>
+    <t>Layout.confirmLogout</t>
+  </si>
+  <si>
+    <t>确定退出？</t>
+  </si>
+  <si>
+    <t>Confirm to exit?</t>
+  </si>
+  <si>
+    <t>Layout.concatUs</t>
+  </si>
+  <si>
+    <t>联系我们</t>
+  </si>
+  <si>
+    <t>Contact us</t>
+  </si>
+  <si>
+    <t>ติดต่อ</t>
+  </si>
+  <si>
+    <t>Layout.aboutUs</t>
+  </si>
+  <si>
+    <t>关于我们</t>
+  </si>
+  <si>
+    <t>About us</t>
+  </si>
+  <si>
+    <t>เกี่ยวกับเรา</t>
+  </si>
+  <si>
+    <t>Layout.privacyText</t>
+  </si>
+  <si>
+    <t>隐私协议</t>
+  </si>
+  <si>
+    <t>Privacy agreement</t>
+  </si>
+  <si>
+    <t>ข้อตกลงความเป็นส่วนตัว</t>
+  </si>
+  <si>
+    <t>Layout.wx</t>
+  </si>
+  <si>
+    <t>在微信中无法支持PDF下载，如需继续请跳转到外部浏览器进行下载</t>
+  </si>
+  <si>
+    <t>PDF download cannot be supported in WeChat, if you want to continue, please jump to an external browser to download</t>
+  </si>
+  <si>
+    <t>WeChat ไม่รองรับการดาวน์โหลด PDF หากคุณต้องการดำเนินการต่อ โปรดข้ามไปที่เบราว์เซอร์ภายนอกเพื่อดาวน์โหลด</t>
+  </si>
+  <si>
+    <t>Layout.inner.innerValue</t>
+  </si>
+  <si>
+    <t>innerValue</t>
+  </si>
+  <si>
+    <t>NavList.Home</t>
+  </si>
+  <si>
+    <t>首页</t>
+  </si>
+  <si>
+    <t>Home</t>
+  </si>
+  <si>
+    <t>หน้าแรก</t>
+  </si>
+  <si>
+    <t>NavList.Reserve</t>
+  </si>
+  <si>
+    <t>预约</t>
+  </si>
+  <si>
+    <t>Appointment</t>
+  </si>
+  <si>
+    <t>จอง</t>
+  </si>
+  <si>
+    <t>NavList.Guide</t>
+  </si>
+  <si>
+    <t>检测点路线指导</t>
+  </si>
+  <si>
+    <t>Map&amp;Navigation</t>
+  </si>
+  <si>
+    <t>คำแนะนำเส้นทางจุดตรวจสอบ</t>
+  </si>
+  <si>
+    <t>Layout.login.dasd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -46,10 +214,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -374,188 +550,194 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="54.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>Layout.login</v>
-      </c>
-      <c r="B1" t="str">
-        <v>登录</v>
-      </c>
-      <c r="C1" t="str">
-        <v>Log in</v>
-      </c>
-      <c r="D1" t="str">
-        <v>เข้าสู่ระบบ</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>Layout.register</v>
-      </c>
-      <c r="B2" t="str">
-        <v>注册</v>
-      </c>
-      <c r="C2" t="str">
-        <v>Register</v>
-      </c>
-      <c r="D2" t="str">
-        <v>ลงทะเบียน</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>Layout.center</v>
-      </c>
-      <c r="B3" t="str">
-        <v>个人中心</v>
-      </c>
-      <c r="C3" t="str">
-        <v>Profile</v>
-      </c>
-      <c r="D3" t="str">
-        <v>ศูนย์ส่วนบุคคล</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>Layout.logout</v>
-      </c>
-      <c r="B4" t="str">
-        <v>退出</v>
-      </c>
-      <c r="C4" t="str">
-        <v>Log out</v>
-      </c>
-      <c r="D4" t="str">
-        <v>ล้มเลิก</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>Layout.confirmLogout</v>
-      </c>
-      <c r="B5" t="str">
-        <v>确定退出？</v>
-      </c>
-      <c r="C5" t="str">
-        <v>Confirm to exit?</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>Layout.concatUs</v>
-      </c>
-      <c r="B6" t="str">
-        <v>联系我们</v>
-      </c>
-      <c r="C6" t="str">
-        <v>Contact us</v>
-      </c>
-      <c r="D6" t="str">
-        <v>ติดต่อ</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>Layout.aboutUs</v>
-      </c>
-      <c r="B7" t="str">
-        <v>关于我们</v>
-      </c>
-      <c r="C7" t="str">
-        <v>About us</v>
-      </c>
-      <c r="D7" t="str">
-        <v>เกี่ยวกับเรา</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>Layout.privacyText</v>
-      </c>
-      <c r="B8" t="str">
-        <v>隐私协议</v>
-      </c>
-      <c r="C8" t="str">
-        <v>Privacy agreement</v>
-      </c>
-      <c r="D8" t="str">
-        <v>ข้อตกลงความเป็นส่วนตัว</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>Layout.wx</v>
-      </c>
-      <c r="B9" t="str">
-        <v>在微信中无法支持PDF下载，如需继续请跳转到外部浏览器进行下载</v>
-      </c>
-      <c r="C9" t="str">
-        <v>PDF download cannot be supported in WeChat, if you want to continue, please jump to an external browser to download</v>
-      </c>
-      <c r="D9" t="str">
-        <v>WeChat ไม่รองรับการดาวน์โหลด PDF หากคุณต้องการดำเนินการต่อ โปรดข้ามไปที่เบราว์เซอร์ภายนอกเพื่อดาวน์โหลด</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>Layout.inner.innerValue</v>
-      </c>
-      <c r="B10" t="str">
-        <v>innerValue</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>NavList.Home</v>
-      </c>
-      <c r="B11" t="str">
-        <v>首页</v>
-      </c>
-      <c r="C11" t="str">
-        <v>Home</v>
-      </c>
-      <c r="D11" t="str">
-        <v>หน้าแรก</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v>NavList.Reserve</v>
-      </c>
-      <c r="B12" t="str">
-        <v>预约</v>
-      </c>
-      <c r="C12" t="str">
-        <v>Appointment</v>
-      </c>
-      <c r="D12" t="str">
-        <v>จอง</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="str">
-        <v>NavList.Guide</v>
-      </c>
-      <c r="B13" t="str">
-        <v>检测点路线指导</v>
-      </c>
-      <c r="C13" t="str">
-        <v>Map&amp;Navigation</v>
-      </c>
-      <c r="D13" t="str">
-        <v>คำแนะนำเส้นทางจุดตรวจสอบ</v>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D13"/>
+    <ignoredError sqref="A2:D13 B1:D1" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>